--- a/data/pca/factorExposure/factorExposure_2016-12-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01628487142213614</v>
+        <v>0.01411191350899888</v>
       </c>
       <c r="C2">
-        <v>0.03675674884996831</v>
+        <v>0.03974345777072336</v>
       </c>
       <c r="D2">
-        <v>-0.03002980432082247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03228061627578396</v>
+      </c>
+      <c r="E2">
+        <v>0.05338250417755949</v>
+      </c>
+      <c r="F2">
+        <v>-0.01616892048875063</v>
+      </c>
+      <c r="G2">
+        <v>-0.1026750888193826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06682012623766749</v>
+        <v>0.03668689869291444</v>
       </c>
       <c r="C3">
-        <v>0.1005255568205449</v>
+        <v>0.09072583020743782</v>
       </c>
       <c r="D3">
-        <v>-0.01841882612639724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01923468962104806</v>
+      </c>
+      <c r="E3">
+        <v>0.1024249305990225</v>
+      </c>
+      <c r="F3">
+        <v>-0.02687675690670665</v>
+      </c>
+      <c r="G3">
+        <v>-0.1110566784465688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0659510139307234</v>
+        <v>0.05526126722423003</v>
       </c>
       <c r="C4">
-        <v>0.06199703497312252</v>
+        <v>0.0575082610200433</v>
       </c>
       <c r="D4">
-        <v>-0.02500520361240686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02710365768707299</v>
+      </c>
+      <c r="E4">
+        <v>0.05365398511123429</v>
+      </c>
+      <c r="F4">
+        <v>-0.00633470801522205</v>
+      </c>
+      <c r="G4">
+        <v>-0.09256921080982647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02261792222091353</v>
+        <v>0.0340122824500142</v>
       </c>
       <c r="C6">
-        <v>0.05368020295665257</v>
+        <v>0.0402662061054163</v>
       </c>
       <c r="D6">
-        <v>-0.02195046462687403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02009644592627148</v>
+      </c>
+      <c r="E6">
+        <v>0.06094104076681271</v>
+      </c>
+      <c r="F6">
+        <v>-0.009317210025447194</v>
+      </c>
+      <c r="G6">
+        <v>-0.08275879241156631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01989723831584938</v>
+        <v>0.02049691036951141</v>
       </c>
       <c r="C7">
-        <v>0.04088897730206781</v>
+        <v>0.03235780915871819</v>
       </c>
       <c r="D7">
-        <v>-0.01692509366278927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01580361739302744</v>
+      </c>
+      <c r="E7">
+        <v>0.02728316149717668</v>
+      </c>
+      <c r="F7">
+        <v>0.001159960817019246</v>
+      </c>
+      <c r="G7">
+        <v>-0.1219720532178683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002492911948262218</v>
+        <v>0.004808660727133399</v>
       </c>
       <c r="C8">
-        <v>0.009974126254833453</v>
+        <v>0.0200559832001629</v>
       </c>
       <c r="D8">
-        <v>-0.003949585232611586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004869182370316675</v>
+      </c>
+      <c r="E8">
+        <v>0.03664063899270632</v>
+      </c>
+      <c r="F8">
+        <v>-0.00585258453521957</v>
+      </c>
+      <c r="G8">
+        <v>-0.06730782787025981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02898951732650551</v>
+        <v>0.03402073511580038</v>
       </c>
       <c r="C9">
-        <v>0.04177811073023174</v>
+        <v>0.04341228985194617</v>
       </c>
       <c r="D9">
-        <v>-0.01781859853411657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01785191490085746</v>
+      </c>
+      <c r="E9">
+        <v>0.03723573375624831</v>
+      </c>
+      <c r="F9">
+        <v>-0.004365937232652498</v>
+      </c>
+      <c r="G9">
+        <v>-0.09843488008112453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07829046365017335</v>
+        <v>0.09545342863748878</v>
       </c>
       <c r="C10">
-        <v>-0.1876064230533591</v>
+        <v>-0.1938966663076125</v>
       </c>
       <c r="D10">
-        <v>0.05122917825350863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01531415491190549</v>
+      </c>
+      <c r="E10">
+        <v>0.01571765200950125</v>
+      </c>
+      <c r="F10">
+        <v>-0.0297864766369389</v>
+      </c>
+      <c r="G10">
+        <v>-0.05295338212417356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03947228307262135</v>
+        <v>0.0357692779654096</v>
       </c>
       <c r="C11">
-        <v>0.05390866014965157</v>
+        <v>0.05066143777403168</v>
       </c>
       <c r="D11">
-        <v>-0.00501920705549559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.003175987357916489</v>
+      </c>
+      <c r="E11">
+        <v>0.02749139012670423</v>
+      </c>
+      <c r="F11">
+        <v>0.01367892940407266</v>
+      </c>
+      <c r="G11">
+        <v>-0.07435897610253976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03697595902060422</v>
+        <v>0.03708693921511125</v>
       </c>
       <c r="C12">
-        <v>0.04475398185770214</v>
+        <v>0.04501158600095435</v>
       </c>
       <c r="D12">
-        <v>-0.008858499540164317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007472504798439732</v>
+      </c>
+      <c r="E12">
+        <v>0.01870358433447874</v>
+      </c>
+      <c r="F12">
+        <v>0.004652870337802391</v>
+      </c>
+      <c r="G12">
+        <v>-0.07320476500414203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.009954805260205361</v>
+        <v>0.01075363975082661</v>
       </c>
       <c r="C13">
-        <v>0.03061465963320488</v>
+        <v>0.03412448623913365</v>
       </c>
       <c r="D13">
-        <v>-0.02717935700989734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03026559216875196</v>
+      </c>
+      <c r="E13">
+        <v>0.06188398464251938</v>
+      </c>
+      <c r="F13">
+        <v>-0.01928668647278914</v>
+      </c>
+      <c r="G13">
+        <v>-0.1304674265064077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007148921225692535</v>
+        <v>0.00849954303454673</v>
       </c>
       <c r="C14">
-        <v>0.02597772191498885</v>
+        <v>0.02427833557763672</v>
       </c>
       <c r="D14">
-        <v>-0.01161777835237153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01208864135231815</v>
+      </c>
+      <c r="E14">
+        <v>0.02232277492461283</v>
+      </c>
+      <c r="F14">
+        <v>-0.008115587810791282</v>
+      </c>
+      <c r="G14">
+        <v>-0.1134684308486077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03413195550298936</v>
+        <v>0.03464373479119797</v>
       </c>
       <c r="C16">
-        <v>0.04016707816537799</v>
+        <v>0.04328149604324923</v>
       </c>
       <c r="D16">
-        <v>-0.00333803402856394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002883585352377882</v>
+      </c>
+      <c r="E16">
+        <v>0.02419344820252353</v>
+      </c>
+      <c r="F16">
+        <v>-0.003700609293890709</v>
+      </c>
+      <c r="G16">
+        <v>-0.08095711966598325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02927729116477553</v>
+        <v>0.017542603500729</v>
       </c>
       <c r="C19">
-        <v>0.05321544428323403</v>
+        <v>0.04681116770769071</v>
       </c>
       <c r="D19">
-        <v>-0.0193737286034445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02329201715883474</v>
+      </c>
+      <c r="E19">
+        <v>0.1003296617038474</v>
+      </c>
+      <c r="F19">
+        <v>-0.01962953269759325</v>
+      </c>
+      <c r="G19">
+        <v>-0.1352797079299176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01260629224449705</v>
+        <v>0.01493423494638362</v>
       </c>
       <c r="C20">
-        <v>0.0408890222346598</v>
+        <v>0.03531475647702864</v>
       </c>
       <c r="D20">
-        <v>-0.01725877109488738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01635387110600241</v>
+      </c>
+      <c r="E20">
+        <v>0.04700203996618914</v>
+      </c>
+      <c r="F20">
+        <v>-0.02988074599456324</v>
+      </c>
+      <c r="G20">
+        <v>-0.1061102402192175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.005269614872687666</v>
+        <v>0.006297997044568772</v>
       </c>
       <c r="C21">
-        <v>0.03300818533341988</v>
+        <v>0.03183841427764091</v>
       </c>
       <c r="D21">
-        <v>-0.01963416069163986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02262780910615812</v>
+      </c>
+      <c r="E21">
+        <v>0.06665247248200386</v>
+      </c>
+      <c r="F21">
+        <v>-0.02106296640061866</v>
+      </c>
+      <c r="G21">
+        <v>-0.1488185952701547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0008776503850283615</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.007496574279091239</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003025180751506837</v>
+      </c>
+      <c r="E22">
+        <v>0.02159829932023431</v>
+      </c>
+      <c r="F22">
+        <v>0.002602800497833095</v>
+      </c>
+      <c r="G22">
+        <v>-0.005205547952876514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0008883537455281498</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.007487322234913596</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003010245086548913</v>
+      </c>
+      <c r="E23">
+        <v>0.0214493971929823</v>
+      </c>
+      <c r="F23">
+        <v>0.002312617237901461</v>
+      </c>
+      <c r="G23">
+        <v>-0.005040738471860364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02732517564173748</v>
+        <v>0.03048542965202877</v>
       </c>
       <c r="C24">
-        <v>0.04706045896940841</v>
+        <v>0.04858107199241465</v>
       </c>
       <c r="D24">
-        <v>-0.01033860871575936</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.008073877538339647</v>
+      </c>
+      <c r="E24">
+        <v>0.0228719126664932</v>
+      </c>
+      <c r="F24">
+        <v>0.005847500407213589</v>
+      </c>
+      <c r="G24">
+        <v>-0.08125847327910125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04621100806456523</v>
+        <v>0.04316284237970349</v>
       </c>
       <c r="C25">
-        <v>0.05251773792461325</v>
+        <v>0.05495839539728105</v>
       </c>
       <c r="D25">
-        <v>-0.01389645343358512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01209382314849783</v>
+      </c>
+      <c r="E25">
+        <v>0.01498394589211654</v>
+      </c>
+      <c r="F25">
+        <v>0.004357206424091787</v>
+      </c>
+      <c r="G25">
+        <v>-0.08853530995813767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.004096519718762516</v>
+        <v>0.01399618419986763</v>
       </c>
       <c r="C26">
-        <v>0.008217198543824779</v>
+        <v>0.009485306671140231</v>
       </c>
       <c r="D26">
-        <v>-0.02376820210668005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02482756014903897</v>
+      </c>
+      <c r="E26">
+        <v>0.01622703074049992</v>
+      </c>
+      <c r="F26">
+        <v>-0.007362035044339011</v>
+      </c>
+      <c r="G26">
+        <v>-0.084687695859301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09604647192052432</v>
+        <v>0.124254153117646</v>
       </c>
       <c r="C28">
-        <v>-0.2203457739342943</v>
+        <v>-0.2440839464429115</v>
       </c>
       <c r="D28">
-        <v>0.04607328223708426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006757683716280838</v>
+      </c>
+      <c r="E28">
+        <v>-0.003357029571759557</v>
+      </c>
+      <c r="F28">
+        <v>-0.03037921000530298</v>
+      </c>
+      <c r="G28">
+        <v>-0.05147005882722629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01219329902271895</v>
+        <v>0.007640251772117197</v>
       </c>
       <c r="C29">
-        <v>0.01859621272729949</v>
+        <v>0.01957113361948057</v>
       </c>
       <c r="D29">
-        <v>-0.009047047068548943</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01079395413364974</v>
+      </c>
+      <c r="E29">
+        <v>0.01390555912754833</v>
+      </c>
+      <c r="F29">
+        <v>-0.01136572737689272</v>
+      </c>
+      <c r="G29">
+        <v>-0.1013814553720865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03711796502078528</v>
+        <v>0.03879630232705385</v>
       </c>
       <c r="C30">
-        <v>0.07240230685430052</v>
+        <v>0.06324853370080687</v>
       </c>
       <c r="D30">
-        <v>-0.03302431584755389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03248962536112697</v>
+      </c>
+      <c r="E30">
+        <v>0.08356329190083729</v>
+      </c>
+      <c r="F30">
+        <v>0.01795455107078679</v>
+      </c>
+      <c r="G30">
+        <v>-0.1180019954941254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04015105107834421</v>
+        <v>0.0548481690506001</v>
       </c>
       <c r="C31">
-        <v>0.02650399838107316</v>
+        <v>0.03929288283286037</v>
       </c>
       <c r="D31">
-        <v>-0.004625016421072216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004539790896530993</v>
+      </c>
+      <c r="E31">
+        <v>0.001388092293533154</v>
+      </c>
+      <c r="F31">
+        <v>-0.03441688729175178</v>
+      </c>
+      <c r="G31">
+        <v>-0.09322652909145542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.01205693194888199</v>
+        <v>0.002802341168741037</v>
       </c>
       <c r="C32">
-        <v>0.03711707372008684</v>
+        <v>0.02126472909012755</v>
       </c>
       <c r="D32">
-        <v>0.001828404886614497</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0007839165976470888</v>
+      </c>
+      <c r="E32">
+        <v>0.05227600398564118</v>
+      </c>
+      <c r="F32">
+        <v>0.0195795382521989</v>
+      </c>
+      <c r="G32">
+        <v>-0.06907917909798067</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02977976923882454</v>
+        <v>0.02609438783876777</v>
       </c>
       <c r="C33">
-        <v>0.05282202907881931</v>
+        <v>0.04600504303255963</v>
       </c>
       <c r="D33">
-        <v>-0.01730198047817864</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0189947718616327</v>
+      </c>
+      <c r="E33">
+        <v>0.06880914685529112</v>
+      </c>
+      <c r="F33">
+        <v>-0.002528323191765295</v>
+      </c>
+      <c r="G33">
+        <v>-0.1560806163159794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05293416263351475</v>
+        <v>0.04112055251956531</v>
       </c>
       <c r="C34">
-        <v>0.05352246310791511</v>
+        <v>0.05850397229257723</v>
       </c>
       <c r="D34">
-        <v>0.003395976578931864</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003637421247250247</v>
+      </c>
+      <c r="E34">
+        <v>0.02109296401845203</v>
+      </c>
+      <c r="F34">
+        <v>0.0191068006538147</v>
+      </c>
+      <c r="G34">
+        <v>-0.07616822402474545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008190686318236606</v>
+        <v>0.01516026748141209</v>
       </c>
       <c r="C36">
-        <v>0.003821549415652474</v>
+        <v>0.005482949817071214</v>
       </c>
       <c r="D36">
-        <v>-0.01099530406691055</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01395664480200558</v>
+      </c>
+      <c r="E36">
+        <v>0.0198446171153041</v>
+      </c>
+      <c r="F36">
+        <v>-0.01069225823776921</v>
+      </c>
+      <c r="G36">
+        <v>-0.09486314498367772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03389987655056095</v>
+        <v>0.03011132440343547</v>
       </c>
       <c r="C38">
-        <v>0.02338189381335638</v>
+        <v>0.02339137160100226</v>
       </c>
       <c r="D38">
-        <v>0.008382362171589452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.006079657206544221</v>
+      </c>
+      <c r="E38">
+        <v>0.0203599049777837</v>
+      </c>
+      <c r="F38">
+        <v>-0.01506865673256789</v>
+      </c>
+      <c r="G38">
+        <v>-0.09102425400726262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03589492087730318</v>
+        <v>0.03669960064161772</v>
       </c>
       <c r="C39">
-        <v>0.08402832649026783</v>
+        <v>0.07446956845207409</v>
       </c>
       <c r="D39">
-        <v>-0.01951449594906656</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01394766080275865</v>
+      </c>
+      <c r="E39">
+        <v>0.04459354076197262</v>
+      </c>
+      <c r="F39">
+        <v>0.01641674196093825</v>
+      </c>
+      <c r="G39">
+        <v>-0.09081371943380374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01687995624309666</v>
+        <v>0.01596553203767751</v>
       </c>
       <c r="C40">
-        <v>0.02486316676282286</v>
+        <v>0.03283479993059451</v>
       </c>
       <c r="D40">
-        <v>-0.01352802907921317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01597052711318206</v>
+      </c>
+      <c r="E40">
+        <v>0.0342701937550229</v>
+      </c>
+      <c r="F40">
+        <v>-0.029415603450851</v>
+      </c>
+      <c r="G40">
+        <v>-0.1134285702307971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01000188470003927</v>
+        <v>0.01878911848191165</v>
       </c>
       <c r="C41">
-        <v>-0.001837560286615542</v>
+        <v>-0.001771596154623536</v>
       </c>
       <c r="D41">
-        <v>-0.002220622642151911</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.00582945014652052</v>
+      </c>
+      <c r="E41">
+        <v>0.01620137984807889</v>
+      </c>
+      <c r="F41">
+        <v>-0.01667951093537556</v>
+      </c>
+      <c r="G41">
+        <v>-0.08942214704975784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.01240353238226227</v>
+        <v>0.004864914262230441</v>
       </c>
       <c r="C42">
-        <v>0.03279839067977228</v>
+        <v>0.02555249630795796</v>
       </c>
       <c r="D42">
-        <v>-0.09343976900141064</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08354607789608977</v>
+      </c>
+      <c r="E42">
+        <v>-0.01111815178174839</v>
+      </c>
+      <c r="F42">
+        <v>-0.03156021164423402</v>
+      </c>
+      <c r="G42">
+        <v>0.02000305801017784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02935955774801323</v>
+        <v>0.03325652423919397</v>
       </c>
       <c r="C43">
-        <v>0.009415104046200396</v>
+        <v>0.0113860119279818</v>
       </c>
       <c r="D43">
-        <v>-0.002125414180715175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007576001490374604</v>
+      </c>
+      <c r="E43">
+        <v>0.03518462371799708</v>
+      </c>
+      <c r="F43">
+        <v>-0.01439746917658974</v>
+      </c>
+      <c r="G43">
+        <v>-0.1156712337691202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01986726178225775</v>
+        <v>0.01388198682604127</v>
       </c>
       <c r="C44">
-        <v>0.05416104080079982</v>
+        <v>0.04962836899205934</v>
       </c>
       <c r="D44">
-        <v>-0.01046802041974</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.009052288666606371</v>
+      </c>
+      <c r="E44">
+        <v>0.04014507544908775</v>
+      </c>
+      <c r="F44">
+        <v>-0.01921633307604422</v>
+      </c>
+      <c r="G44">
+        <v>-0.1176013914766737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.000737028825218766</v>
+        <v>0.009601827261337979</v>
       </c>
       <c r="C46">
-        <v>0.0100764887275782</v>
+        <v>0.01492758010593254</v>
       </c>
       <c r="D46">
-        <v>-0.01280390633458921</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01372527657148519</v>
+      </c>
+      <c r="E46">
+        <v>0.005887863026002545</v>
+      </c>
+      <c r="F46">
+        <v>-0.01736977022245097</v>
+      </c>
+      <c r="G46">
+        <v>-0.1108906371211427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07211701521152644</v>
+        <v>0.08356978736091643</v>
       </c>
       <c r="C47">
-        <v>0.06602237507538665</v>
+        <v>0.07070011675416746</v>
       </c>
       <c r="D47">
-        <v>-0.0005341529570604851</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004736410203690668</v>
+      </c>
+      <c r="E47">
+        <v>-0.007445007527926097</v>
+      </c>
+      <c r="F47">
+        <v>-0.04329297244709057</v>
+      </c>
+      <c r="G47">
+        <v>-0.0857673788037384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01150441331805481</v>
+        <v>0.01714355405338224</v>
       </c>
       <c r="C48">
-        <v>0.01019935452607813</v>
+        <v>0.01067151731944923</v>
       </c>
       <c r="D48">
-        <v>-0.001433527147148562</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003583578871357788</v>
+      </c>
+      <c r="E48">
+        <v>0.01400860594531645</v>
+      </c>
+      <c r="F48">
+        <v>-0.02299690336711126</v>
+      </c>
+      <c r="G48">
+        <v>-0.1071151908124822</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07793512843340966</v>
+        <v>0.07756786732255282</v>
       </c>
       <c r="C50">
-        <v>0.06116199951445409</v>
+        <v>0.06640830869483165</v>
       </c>
       <c r="D50">
-        <v>3.053288223999619e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001059465646648255</v>
+      </c>
+      <c r="E50">
+        <v>-0.0002688452480412259</v>
+      </c>
+      <c r="F50">
+        <v>-0.04262627190725237</v>
+      </c>
+      <c r="G50">
+        <v>-0.09649210644697175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01906146722882676</v>
+        <v>0.01207347421465383</v>
       </c>
       <c r="C51">
-        <v>0.03804445526405645</v>
+        <v>0.03119486351834369</v>
       </c>
       <c r="D51">
-        <v>-0.01136794469226994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01250252715582586</v>
+      </c>
+      <c r="E51">
+        <v>0.04107214390744382</v>
+      </c>
+      <c r="F51">
+        <v>0.007894815812060701</v>
+      </c>
+      <c r="G51">
+        <v>-0.1086516510526141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1004732476805492</v>
+        <v>0.08594443523480151</v>
       </c>
       <c r="C53">
-        <v>0.07351522691899705</v>
+        <v>0.08516073930778831</v>
       </c>
       <c r="D53">
-        <v>0.000928361390688134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003570834318316023</v>
+      </c>
+      <c r="E53">
+        <v>-0.02893587574580197</v>
+      </c>
+      <c r="F53">
+        <v>-0.04720321858564346</v>
+      </c>
+      <c r="G53">
+        <v>-0.08875614491065258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02726978945689236</v>
+        <v>0.03197399667383131</v>
       </c>
       <c r="C54">
-        <v>0.002392746629613917</v>
+        <v>0.0136465712072517</v>
       </c>
       <c r="D54">
-        <v>0.005317975652390944</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0005119773721520382</v>
+      </c>
+      <c r="E54">
+        <v>0.02751814907494589</v>
+      </c>
+      <c r="F54">
+        <v>-0.0132575505110792</v>
+      </c>
+      <c r="G54">
+        <v>-0.1099246392633908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07624957497647626</v>
+        <v>0.08082785444867824</v>
       </c>
       <c r="C55">
-        <v>0.06322293846379709</v>
+        <v>0.06844048698964543</v>
       </c>
       <c r="D55">
-        <v>0.0004799506743186016</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005795649627328223</v>
+      </c>
+      <c r="E55">
+        <v>-0.0326440469874678</v>
+      </c>
+      <c r="F55">
+        <v>-0.04682012347219872</v>
+      </c>
+      <c r="G55">
+        <v>-0.06557474074466924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1526324274326885</v>
+        <v>0.1420468786488709</v>
       </c>
       <c r="C56">
-        <v>0.09260613731966576</v>
+        <v>0.103343521068106</v>
       </c>
       <c r="D56">
-        <v>0.01011660581876267</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01290728745748565</v>
+      </c>
+      <c r="E56">
+        <v>-0.03857483260022945</v>
+      </c>
+      <c r="F56">
+        <v>-0.05761811250632677</v>
+      </c>
+      <c r="G56">
+        <v>-0.0534154339854172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.009530383706370505</v>
+        <v>0.003559216470096553</v>
       </c>
       <c r="C57">
-        <v>0.003459534156209699</v>
+        <v>0.003211091194938885</v>
       </c>
       <c r="D57">
-        <v>-0.02171569032278628</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02295705063553341</v>
+      </c>
+      <c r="E57">
+        <v>0.02466036494408844</v>
+      </c>
+      <c r="F57">
+        <v>-0.003049889177842217</v>
+      </c>
+      <c r="G57">
+        <v>-0.01225414221569107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04297579883820708</v>
+        <v>0.03736450035946785</v>
       </c>
       <c r="C58">
-        <v>0.06087826252912852</v>
+        <v>0.02954705297024142</v>
       </c>
       <c r="D58">
-        <v>-0.005540325196523416</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03718932387190073</v>
+      </c>
+      <c r="E58">
+        <v>0.7224693329612308</v>
+      </c>
+      <c r="F58">
+        <v>-0.5807342526399595</v>
+      </c>
+      <c r="G58">
+        <v>0.3102563608487872</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1460050630763866</v>
+        <v>0.1498160665766691</v>
       </c>
       <c r="C59">
-        <v>-0.2183115215905313</v>
+        <v>-0.2069347511424684</v>
       </c>
       <c r="D59">
-        <v>0.05806306181860351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01020894294357854</v>
+      </c>
+      <c r="E59">
+        <v>0.02183947865370548</v>
+      </c>
+      <c r="F59">
+        <v>-0.01454100352446963</v>
+      </c>
+      <c r="G59">
+        <v>-0.03929739235185062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3118298327522773</v>
+        <v>0.2872874466798194</v>
       </c>
       <c r="C60">
-        <v>0.08814303579890774</v>
+        <v>0.09619047398330138</v>
       </c>
       <c r="D60">
-        <v>0.003884552255566678</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01814380172340951</v>
+      </c>
+      <c r="E60">
+        <v>0.1307685312528541</v>
+      </c>
+      <c r="F60">
+        <v>0.3066114380448276</v>
+      </c>
+      <c r="G60">
+        <v>0.1601681222320656</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03247619974592569</v>
+        <v>0.0388570106758834</v>
       </c>
       <c r="C61">
-        <v>0.06316741253810132</v>
+        <v>0.06167867761916732</v>
       </c>
       <c r="D61">
-        <v>-0.01044280760463902</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007586621761668634</v>
+      </c>
+      <c r="E61">
+        <v>0.03939882346630399</v>
+      </c>
+      <c r="F61">
+        <v>0.006174184824472784</v>
+      </c>
+      <c r="G61">
+        <v>-0.08828820841720897</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.0137523255270881</v>
+        <v>0.01459738571503818</v>
       </c>
       <c r="C63">
-        <v>0.02816076435353231</v>
+        <v>0.02556278388435368</v>
       </c>
       <c r="D63">
-        <v>-0.01071699372648972</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009466888139994472</v>
+      </c>
+      <c r="E63">
+        <v>0.01290403140332995</v>
+      </c>
+      <c r="F63">
+        <v>-0.01307359869896706</v>
+      </c>
+      <c r="G63">
+        <v>-0.08795246317793884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04613790716861909</v>
+        <v>0.05044261386867818</v>
       </c>
       <c r="C64">
-        <v>0.0310326880564776</v>
+        <v>0.0471891561169927</v>
       </c>
       <c r="D64">
-        <v>-0.005308475548201203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006457606983353036</v>
+      </c>
+      <c r="E64">
+        <v>0.008686132230974785</v>
+      </c>
+      <c r="F64">
+        <v>0.003045952435558849</v>
+      </c>
+      <c r="G64">
+        <v>-0.09481730796840428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08129126686075971</v>
+        <v>0.0709761065852875</v>
       </c>
       <c r="C65">
-        <v>0.06628963515442542</v>
+        <v>0.04739066031371234</v>
       </c>
       <c r="D65">
-        <v>-0.01771974296515626</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01928522154186182</v>
+      </c>
+      <c r="E65">
+        <v>0.06440213835632409</v>
+      </c>
+      <c r="F65">
+        <v>0.008025823736442377</v>
+      </c>
+      <c r="G65">
+        <v>-0.03930697813513367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0570719500033842</v>
+        <v>0.04840974741944707</v>
       </c>
       <c r="C66">
-        <v>0.1237036532173783</v>
+        <v>0.09996780111143592</v>
       </c>
       <c r="D66">
-        <v>-0.02325155381353577</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01479114699780086</v>
+      </c>
+      <c r="E66">
+        <v>0.06774064397707291</v>
+      </c>
+      <c r="F66">
+        <v>0.02187907930562529</v>
+      </c>
+      <c r="G66">
+        <v>-0.09520396490721567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06306672050244225</v>
+        <v>0.05351619890597239</v>
       </c>
       <c r="C67">
-        <v>0.02524059099924489</v>
+        <v>0.02910892648064504</v>
       </c>
       <c r="D67">
-        <v>0.008596339918070033</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005326835299398591</v>
+      </c>
+      <c r="E67">
+        <v>0.006649595936210995</v>
+      </c>
+      <c r="F67">
+        <v>-0.01059734706151917</v>
+      </c>
+      <c r="G67">
+        <v>-0.07758144290087141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1112300250104758</v>
+        <v>0.1529997808503642</v>
       </c>
       <c r="C68">
-        <v>-0.2798288412714596</v>
+        <v>-0.2730617434194826</v>
       </c>
       <c r="D68">
-        <v>0.04402378522854807</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005419193571754084</v>
+      </c>
+      <c r="E68">
+        <v>-0.007276821057935261</v>
+      </c>
+      <c r="F68">
+        <v>-0.04471197429369771</v>
+      </c>
+      <c r="G68">
+        <v>-0.01972518048763366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0813356118759417</v>
+        <v>0.08430412142091537</v>
       </c>
       <c r="C69">
-        <v>0.06000649011776046</v>
+        <v>0.07283541209333526</v>
       </c>
       <c r="D69">
-        <v>0.005744688984839348</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008159363339636133</v>
+      </c>
+      <c r="E69">
+        <v>-0.01277096903365522</v>
+      </c>
+      <c r="F69">
+        <v>-0.02051265677020025</v>
+      </c>
+      <c r="G69">
+        <v>-0.100982664388676</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1197610470564878</v>
+        <v>0.1394869025374861</v>
       </c>
       <c r="C71">
-        <v>-0.2267689261415355</v>
+        <v>-0.2353057303536694</v>
       </c>
       <c r="D71">
-        <v>0.04800174481002013</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002870354785576758</v>
+      </c>
+      <c r="E71">
+        <v>0.02252805838360059</v>
+      </c>
+      <c r="F71">
+        <v>-0.03811989427343226</v>
+      </c>
+      <c r="G71">
+        <v>-0.06429386629668359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07042055132335405</v>
+        <v>0.08573763811119041</v>
       </c>
       <c r="C72">
-        <v>0.06643547265439481</v>
+        <v>0.06060080033218493</v>
       </c>
       <c r="D72">
-        <v>0.004435627979873577</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006901685262432574</v>
+      </c>
+      <c r="E72">
+        <v>0.008179158970969489</v>
+      </c>
+      <c r="F72">
+        <v>0.02329227851705301</v>
+      </c>
+      <c r="G72">
+        <v>-0.08431628941804552</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4335879238311802</v>
+        <v>0.3723247909235691</v>
       </c>
       <c r="C73">
-        <v>0.1021501304730348</v>
+        <v>0.08867764013335853</v>
       </c>
       <c r="D73">
-        <v>0.01146178059745607</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03106527470869716</v>
+      </c>
+      <c r="E73">
+        <v>0.2827995003736651</v>
+      </c>
+      <c r="F73">
+        <v>0.5352379549401095</v>
+      </c>
+      <c r="G73">
+        <v>0.3271350318344508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1170725901972903</v>
+        <v>0.1090063607252659</v>
       </c>
       <c r="C74">
-        <v>0.1180544910076929</v>
+        <v>0.1039251108660593</v>
       </c>
       <c r="D74">
-        <v>-2.973385401449448e-06</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009270499179270806</v>
+      </c>
+      <c r="E74">
+        <v>-0.01105915018515518</v>
+      </c>
+      <c r="F74">
+        <v>-0.05882433371569448</v>
+      </c>
+      <c r="G74">
+        <v>-0.07243410772984145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2590416379122236</v>
+        <v>0.252790112773715</v>
       </c>
       <c r="C75">
-        <v>0.1308147705975072</v>
+        <v>0.1461196535407202</v>
       </c>
       <c r="D75">
-        <v>0.02346733815392636</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03210550650695632</v>
+      </c>
+      <c r="E75">
+        <v>-0.1019559120780959</v>
+      </c>
+      <c r="F75">
+        <v>-0.1316419353578921</v>
+      </c>
+      <c r="G75">
+        <v>-0.02201986293916031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1222144272007518</v>
+        <v>0.1223440043972058</v>
       </c>
       <c r="C76">
-        <v>0.107057868000235</v>
+        <v>0.1065075158494587</v>
       </c>
       <c r="D76">
-        <v>0.008459335046053739</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01813972137498894</v>
+      </c>
+      <c r="E76">
+        <v>-0.04270836294471652</v>
+      </c>
+      <c r="F76">
+        <v>-0.07996972026240748</v>
+      </c>
+      <c r="G76">
+        <v>-0.06588365887161472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.06391678333503899</v>
+        <v>0.06714256282786983</v>
       </c>
       <c r="C77">
-        <v>0.06120352760491807</v>
+        <v>0.06375618701087965</v>
       </c>
       <c r="D77">
-        <v>-0.01095900447343201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01060892350913188</v>
+      </c>
+      <c r="E77">
+        <v>0.05442298009439348</v>
+      </c>
+      <c r="F77">
+        <v>-0.04042785883070213</v>
+      </c>
+      <c r="G77">
+        <v>-0.1172578122103719</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04837485155491966</v>
+        <v>0.04091242404768985</v>
       </c>
       <c r="C78">
-        <v>0.05286737036431765</v>
+        <v>0.053089058237497</v>
       </c>
       <c r="D78">
-        <v>-0.0071233028717613</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.009727612523857503</v>
+      </c>
+      <c r="E78">
+        <v>0.05618225042609448</v>
+      </c>
+      <c r="F78">
+        <v>0.0251822304962774</v>
+      </c>
+      <c r="G78">
+        <v>-0.09637200283400207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001191488023759521</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-5.572071468371613e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0010189607427222</v>
+      </c>
+      <c r="E79">
+        <v>0.008128810278095984</v>
+      </c>
+      <c r="F79">
+        <v>-0.001970794726704731</v>
+      </c>
+      <c r="G79">
+        <v>-0.009175688543551263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05802587665558513</v>
+        <v>0.04124947994632701</v>
       </c>
       <c r="C80">
-        <v>0.06407591052460855</v>
+        <v>0.04738928129568235</v>
       </c>
       <c r="D80">
-        <v>-0.01596318110474881</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01530495694102712</v>
+      </c>
+      <c r="E80">
+        <v>0.04293353270476721</v>
+      </c>
+      <c r="F80">
+        <v>-0.003080978298901629</v>
+      </c>
+      <c r="G80">
+        <v>-0.05255262357031848</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.13760825270351</v>
+        <v>0.1388585398174786</v>
       </c>
       <c r="C81">
-        <v>0.07783226353103224</v>
+        <v>0.09376168797950091</v>
       </c>
       <c r="D81">
-        <v>0.01008429311143381</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01559681412639869</v>
+      </c>
+      <c r="E81">
+        <v>-0.065581487981328</v>
+      </c>
+      <c r="F81">
+        <v>-0.1049335971659041</v>
+      </c>
+      <c r="G81">
+        <v>-0.03654307846808166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.05119316432862092</v>
+        <v>0.1702135031067987</v>
       </c>
       <c r="C82">
-        <v>0.03541717883558368</v>
+        <v>0.1221537287823699</v>
       </c>
       <c r="D82">
-        <v>0.0002706189943820692</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01842221016892424</v>
+      </c>
+      <c r="E82">
+        <v>-0.1791468174683397</v>
+      </c>
+      <c r="F82">
+        <v>-0.05272108195581802</v>
+      </c>
+      <c r="G82">
+        <v>-0.0253687461744645</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02948403596196717</v>
+        <v>0.02800715529354474</v>
       </c>
       <c r="C83">
-        <v>0.01929544586043369</v>
+        <v>0.03365107125934518</v>
       </c>
       <c r="D83">
-        <v>-0.004289850087891767</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.008040187663536568</v>
+      </c>
+      <c r="E83">
+        <v>0.036501262192977</v>
+      </c>
+      <c r="F83">
+        <v>0.01076594998850073</v>
+      </c>
+      <c r="G83">
+        <v>-0.06187617182788889</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2497354262333679</v>
+        <v>0.2129734444962456</v>
       </c>
       <c r="C85">
-        <v>0.1323929590228463</v>
+        <v>0.1303132755749416</v>
       </c>
       <c r="D85">
-        <v>0.01231615749746153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01872856417855202</v>
+      </c>
+      <c r="E85">
+        <v>-0.1074767716396088</v>
+      </c>
+      <c r="F85">
+        <v>-0.058783136045677</v>
+      </c>
+      <c r="G85">
+        <v>0.01989665849534861</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01000663066008109</v>
+        <v>0.01032007535221197</v>
       </c>
       <c r="C86">
-        <v>0.02110811800391291</v>
+        <v>0.02546378776590379</v>
       </c>
       <c r="D86">
-        <v>-0.008973652511413808</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0149816889812671</v>
+      </c>
+      <c r="E86">
+        <v>0.07602453550242021</v>
+      </c>
+      <c r="F86">
+        <v>0.01232621085611448</v>
+      </c>
+      <c r="G86">
+        <v>-0.1725269757482989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01464445105531872</v>
+        <v>0.01999081736846324</v>
       </c>
       <c r="C87">
-        <v>0.02066497137363441</v>
+        <v>0.01428129299571629</v>
       </c>
       <c r="D87">
-        <v>-0.009759350778444982</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01455118364576955</v>
+      </c>
+      <c r="E87">
+        <v>0.09989393035514936</v>
+      </c>
+      <c r="F87">
+        <v>-0.03513878093589724</v>
+      </c>
+      <c r="G87">
+        <v>-0.1103082205359271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09461672208333471</v>
+        <v>0.08954202475949992</v>
       </c>
       <c r="C88">
-        <v>0.06244898730145461</v>
+        <v>0.06222480226940507</v>
       </c>
       <c r="D88">
-        <v>-0.02427182917099517</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02311791001551167</v>
+      </c>
+      <c r="E88">
+        <v>0.006189529526820544</v>
+      </c>
+      <c r="F88">
+        <v>-0.01999999275456395</v>
+      </c>
+      <c r="G88">
+        <v>-0.1057893055673649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2054703884441132</v>
+        <v>0.2186322941423907</v>
       </c>
       <c r="C89">
-        <v>-0.3727902647234285</v>
+        <v>-0.3691882313469796</v>
       </c>
       <c r="D89">
-        <v>0.07258683404331204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0003482624177665671</v>
+      </c>
+      <c r="E89">
+        <v>-0.0273621648247749</v>
+      </c>
+      <c r="F89">
+        <v>-0.0178500021382928</v>
+      </c>
+      <c r="G89">
+        <v>-0.08779106201211381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1821473424531626</v>
+        <v>0.2018326581737164</v>
       </c>
       <c r="C90">
-        <v>-0.3376450918935032</v>
+        <v>-0.3189333755561252</v>
       </c>
       <c r="D90">
-        <v>0.07045313783211607</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004979254951635935</v>
+      </c>
+      <c r="E90">
+        <v>-0.01885313763202671</v>
+      </c>
+      <c r="F90">
+        <v>-0.05276616689145818</v>
+      </c>
+      <c r="G90">
+        <v>-0.05010573960108908</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.201202532274853</v>
+        <v>0.1882485442804737</v>
       </c>
       <c r="C91">
-        <v>0.1133793046009293</v>
+        <v>0.1330638959848689</v>
       </c>
       <c r="D91">
-        <v>0.01712003467789428</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02336064554688022</v>
+      </c>
+      <c r="E91">
+        <v>-0.08621730073101593</v>
+      </c>
+      <c r="F91">
+        <v>-0.1038092557879924</v>
+      </c>
+      <c r="G91">
+        <v>-0.04284110736404143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1840530960863768</v>
+        <v>0.1841230975127665</v>
       </c>
       <c r="C92">
-        <v>-0.2604702017243813</v>
+        <v>-0.2731994099281554</v>
       </c>
       <c r="D92">
-        <v>0.09442709907607984</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03962263023430923</v>
+      </c>
+      <c r="E92">
+        <v>0.01070559167111809</v>
+      </c>
+      <c r="F92">
+        <v>-0.06933308455273909</v>
+      </c>
+      <c r="G92">
+        <v>-0.07779390287272282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1959060145641116</v>
+        <v>0.2252185348578317</v>
       </c>
       <c r="C93">
-        <v>-0.3198672702197219</v>
+        <v>-0.3182211383867019</v>
       </c>
       <c r="D93">
-        <v>0.07429874965419131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01063525445653918</v>
+      </c>
+      <c r="E93">
+        <v>0.00148468551586419</v>
+      </c>
+      <c r="F93">
+        <v>-0.03551810089768695</v>
+      </c>
+      <c r="G93">
+        <v>-0.05373775842878466</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2769871298120453</v>
+        <v>0.3364417683525727</v>
       </c>
       <c r="C94">
-        <v>0.1446589015552888</v>
+        <v>0.2000711036755368</v>
       </c>
       <c r="D94">
-        <v>0.002122419575189135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03004293147333863</v>
+      </c>
+      <c r="E94">
+        <v>-0.387814841073746</v>
+      </c>
+      <c r="F94">
+        <v>-0.3560530787556785</v>
+      </c>
+      <c r="G94">
+        <v>0.3760377657813884</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.07270767175836429</v>
+        <v>0.08040179151558799</v>
       </c>
       <c r="C95">
-        <v>0.09243230829420666</v>
+        <v>0.08704120343445614</v>
       </c>
       <c r="D95">
-        <v>-0.0001398234533208983</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.007736365447904413</v>
+      </c>
+      <c r="E95">
+        <v>0.1323900101400586</v>
+      </c>
+      <c r="F95">
+        <v>0.1318331154568913</v>
+      </c>
+      <c r="G95">
+        <v>-0.1337315870536498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2083555209928902</v>
+        <v>0.194952876427562</v>
       </c>
       <c r="C98">
-        <v>0.05005334447639423</v>
+        <v>0.04661476283267914</v>
       </c>
       <c r="D98">
-        <v>0.0288547173656482</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.008765950120455187</v>
+      </c>
+      <c r="E98">
+        <v>0.1368225720456601</v>
+      </c>
+      <c r="F98">
+        <v>0.1985105481556153</v>
+      </c>
+      <c r="G98">
+        <v>0.06462226028447407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01200734804666527</v>
+        <v>0.007487283981092338</v>
       </c>
       <c r="C101">
-        <v>0.01891825205231861</v>
+        <v>0.01946442412575035</v>
       </c>
       <c r="D101">
-        <v>-0.008972438223305719</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01060798198480781</v>
+      </c>
+      <c r="E101">
+        <v>0.01339469857246554</v>
+      </c>
+      <c r="F101">
+        <v>-0.01212746370698796</v>
+      </c>
+      <c r="G101">
+        <v>-0.1010464226313625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1237931637500271</v>
+        <v>0.1239222456432574</v>
       </c>
       <c r="C102">
-        <v>0.07337636094484158</v>
+        <v>0.09670527952190452</v>
       </c>
       <c r="D102">
-        <v>-0.004454957250806186</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0005939415901149201</v>
+      </c>
+      <c r="E102">
+        <v>-0.05064955539920716</v>
+      </c>
+      <c r="F102">
+        <v>-0.02046419004090707</v>
+      </c>
+      <c r="G102">
+        <v>-0.0180758836239674</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.1000944211265988</v>
+        <v>0.01972777196541305</v>
       </c>
       <c r="C104">
-        <v>-0.1792453349759692</v>
+        <v>-0.02823476206571629</v>
       </c>
       <c r="D104">
-        <v>-0.9697177797900998</v>
+        <v>-0.9857714970637856</v>
+      </c>
+      <c r="E104">
+        <v>-0.0908988692222482</v>
+      </c>
+      <c r="F104">
+        <v>-0.01904826333543477</v>
+      </c>
+      <c r="G104">
+        <v>0.03706923759394421</v>
       </c>
     </row>
   </sheetData>
